--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gdnf-Gfra2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gdnf-Gfra2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,10 +543,10 @@
         <v>0.40623</v>
       </c>
       <c r="I2">
-        <v>0.1064658135528677</v>
+        <v>0.03919062573893041</v>
       </c>
       <c r="J2">
-        <v>0.1064658135528677</v>
+        <v>0.0391906257389304</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2905513333333333</v>
+        <v>0.745085</v>
       </c>
       <c r="N2">
-        <v>0.8716539999999999</v>
+        <v>2.235255</v>
       </c>
       <c r="O2">
-        <v>0.03357026194890181</v>
+        <v>0.07418358086139912</v>
       </c>
       <c r="P2">
-        <v>0.03357026194890179</v>
+        <v>0.07418358086139913</v>
       </c>
       <c r="Q2">
-        <v>0.03934355604666667</v>
+        <v>0.10089195985</v>
       </c>
       <c r="R2">
-        <v>0.35409200442</v>
+        <v>0.9080276386499999</v>
       </c>
       <c r="S2">
-        <v>0.003574085249572709</v>
+        <v>0.002907300953512774</v>
       </c>
       <c r="T2">
-        <v>0.003574085249572707</v>
+        <v>0.002907300953512774</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +605,10 @@
         <v>0.40623</v>
       </c>
       <c r="I3">
-        <v>0.1064658135528677</v>
+        <v>0.03919062573893041</v>
       </c>
       <c r="J3">
-        <v>0.1064658135528677</v>
+        <v>0.0391906257389304</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.332302333333333</v>
+        <v>5.332302333333334</v>
       </c>
       <c r="N3">
         <v>15.996907</v>
       </c>
       <c r="O3">
-        <v>0.6160934939347733</v>
+        <v>0.5309049052420336</v>
       </c>
       <c r="P3">
-        <v>0.6160934939347732</v>
+        <v>0.5309049052420336</v>
       </c>
       <c r="Q3">
-        <v>0.7220470589566667</v>
+        <v>0.7220470589566668</v>
       </c>
       <c r="R3">
-        <v>6.49842353061</v>
+        <v>6.498423530609999</v>
       </c>
       <c r="S3">
-        <v>0.0655928950563944</v>
+        <v>0.02080649544430285</v>
       </c>
       <c r="T3">
-        <v>0.06559289505639439</v>
+        <v>0.02080649544430285</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,40 +667,40 @@
         <v>0.40623</v>
       </c>
       <c r="I4">
-        <v>0.1064658135528677</v>
+        <v>0.03919062573893041</v>
       </c>
       <c r="J4">
-        <v>0.1064658135528677</v>
+        <v>0.0391906257389304</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.08639533333333334</v>
+        <v>0.07052433333333334</v>
       </c>
       <c r="N4">
-        <v>0.259186</v>
+        <v>0.211573</v>
       </c>
       <c r="O4">
-        <v>0.009982105185644836</v>
+        <v>0.00702167884809062</v>
       </c>
       <c r="P4">
-        <v>0.009982105185644834</v>
+        <v>0.007021678848090619</v>
       </c>
       <c r="Q4">
-        <v>0.01169879208666667</v>
+        <v>0.009549699976666668</v>
       </c>
       <c r="R4">
-        <v>0.10528912878</v>
+        <v>0.08594729979</v>
       </c>
       <c r="S4">
-        <v>0.001062752949559977</v>
+        <v>0.0002751839877944835</v>
       </c>
       <c r="T4">
-        <v>0.001062752949559977</v>
+        <v>0.0002751839877944834</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +729,10 @@
         <v>0.40623</v>
       </c>
       <c r="I5">
-        <v>0.1064658135528677</v>
+        <v>0.03919062573893041</v>
       </c>
       <c r="J5">
-        <v>0.1064658135528677</v>
+        <v>0.0391906257389304</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,33 +741,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.92307</v>
+        <v>3.895887666666667</v>
       </c>
       <c r="N5">
-        <v>8.769209999999999</v>
+        <v>11.687663</v>
       </c>
       <c r="O5">
-        <v>0.3377311143927856</v>
+        <v>0.3878898350484767</v>
       </c>
       <c r="P5">
-        <v>0.3377311143927856</v>
+        <v>0.3878898350484767</v>
       </c>
       <c r="Q5">
-        <v>0.3958129087</v>
+        <v>0.5275421489433334</v>
       </c>
       <c r="R5">
-        <v>3.5623161783</v>
+        <v>4.74787934049</v>
       </c>
       <c r="S5">
-        <v>0.03595681785594455</v>
+        <v>0.0152016453533203</v>
       </c>
       <c r="T5">
-        <v>0.03595681785594455</v>
+        <v>0.0152016453533203</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -779,55 +776,55 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.13541</v>
+        <v>3.319753</v>
       </c>
       <c r="H6">
-        <v>0.40623</v>
+        <v>9.959258999999999</v>
       </c>
       <c r="I6">
-        <v>0.1064658135528677</v>
+        <v>0.9608093742610696</v>
       </c>
       <c r="J6">
-        <v>0.1064658135528677</v>
+        <v>0.9608093742610695</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.02270233333333333</v>
+        <v>0.745085</v>
       </c>
       <c r="N6">
-        <v>0.068107</v>
+        <v>2.235255</v>
       </c>
       <c r="O6">
-        <v>0.002623024537894458</v>
+        <v>0.07418358086139912</v>
       </c>
       <c r="P6">
-        <v>0.002623024537894457</v>
+        <v>0.07418358086139913</v>
       </c>
       <c r="Q6">
-        <v>0.003074122956666667</v>
+        <v>2.473498164005</v>
       </c>
       <c r="R6">
-        <v>0.02766710661</v>
+        <v>22.261483476045</v>
       </c>
       <c r="S6">
-        <v>0.0002792624413960683</v>
+        <v>0.07127627990788635</v>
       </c>
       <c r="T6">
-        <v>0.0002792624413960682</v>
+        <v>0.07127627990788635</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +838,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,46 +847,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.136453666666667</v>
+        <v>3.319753</v>
       </c>
       <c r="H7">
-        <v>3.409361</v>
+        <v>9.959258999999999</v>
       </c>
       <c r="I7">
-        <v>0.8935341864471323</v>
+        <v>0.9608093742610696</v>
       </c>
       <c r="J7">
-        <v>0.8935341864471323</v>
+        <v>0.9608093742610695</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2905513333333333</v>
+        <v>5.332302333333334</v>
       </c>
       <c r="N7">
-        <v>0.8716539999999999</v>
+        <v>15.996907</v>
       </c>
       <c r="O7">
-        <v>0.03357026194890181</v>
+        <v>0.5309049052420336</v>
       </c>
       <c r="P7">
-        <v>0.03357026194890179</v>
+        <v>0.5309049052420336</v>
       </c>
       <c r="Q7">
-        <v>0.3301981281215556</v>
+        <v>17.70192666799034</v>
       </c>
       <c r="R7">
-        <v>2.971783153094</v>
+        <v>159.317340011913</v>
       </c>
       <c r="S7">
-        <v>0.0299961766993291</v>
+        <v>0.5100984097977308</v>
       </c>
       <c r="T7">
-        <v>0.02999617669932909</v>
+        <v>0.5100984097977307</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +900,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.136453666666667</v>
+        <v>3.319753</v>
       </c>
       <c r="H8">
-        <v>3.409361</v>
+        <v>9.959258999999999</v>
       </c>
       <c r="I8">
-        <v>0.8935341864471323</v>
+        <v>0.9608093742610696</v>
       </c>
       <c r="J8">
-        <v>0.8935341864471323</v>
+        <v>0.9608093742610695</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>5.332302333333333</v>
+        <v>0.07052433333333334</v>
       </c>
       <c r="N8">
-        <v>15.996907</v>
+        <v>0.211573</v>
       </c>
       <c r="O8">
-        <v>0.6160934939347733</v>
+        <v>0.00702167884809062</v>
       </c>
       <c r="P8">
-        <v>0.6160934939347732</v>
+        <v>0.007021678848090619</v>
       </c>
       <c r="Q8">
-        <v>6.059914538491888</v>
+        <v>0.2341233671563334</v>
       </c>
       <c r="R8">
-        <v>54.539230846427</v>
+        <v>2.107110304407</v>
       </c>
       <c r="S8">
-        <v>0.5505005988783789</v>
+        <v>0.006746494860296137</v>
       </c>
       <c r="T8">
-        <v>0.5505005988783789</v>
+        <v>0.006746494860296135</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +962,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,170 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.136453666666667</v>
+        <v>3.319753</v>
       </c>
       <c r="H9">
-        <v>3.409361</v>
+        <v>9.959258999999999</v>
       </c>
       <c r="I9">
-        <v>0.8935341864471323</v>
+        <v>0.9608093742610696</v>
       </c>
       <c r="J9">
-        <v>0.8935341864471323</v>
+        <v>0.9608093742610695</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.08639533333333334</v>
+        <v>3.895887666666667</v>
       </c>
       <c r="N9">
-        <v>0.259186</v>
+        <v>11.687663</v>
       </c>
       <c r="O9">
-        <v>0.009982105185644836</v>
+        <v>0.3878898350484767</v>
       </c>
       <c r="P9">
-        <v>0.009982105185644834</v>
+        <v>0.3878898350484767</v>
       </c>
       <c r="Q9">
-        <v>0.09818429334955556</v>
+        <v>12.93338476907967</v>
       </c>
       <c r="R9">
-        <v>0.8836586401460002</v>
+        <v>116.400462921717</v>
       </c>
       <c r="S9">
-        <v>0.00891935223608486</v>
+        <v>0.3726881896951564</v>
       </c>
       <c r="T9">
-        <v>0.008919352236084858</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.136453666666667</v>
-      </c>
-      <c r="H10">
-        <v>3.409361</v>
-      </c>
-      <c r="I10">
-        <v>0.8935341864471323</v>
-      </c>
-      <c r="J10">
-        <v>0.8935341864471323</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>2.92307</v>
-      </c>
-      <c r="N10">
-        <v>8.769209999999999</v>
-      </c>
-      <c r="O10">
-        <v>0.3377311143927856</v>
-      </c>
-      <c r="P10">
-        <v>0.3377311143927856</v>
-      </c>
-      <c r="Q10">
-        <v>3.321933619423333</v>
-      </c>
-      <c r="R10">
-        <v>29.89740257481</v>
-      </c>
-      <c r="S10">
-        <v>0.3017742965368411</v>
-      </c>
-      <c r="T10">
-        <v>0.3017742965368411</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.136453666666667</v>
-      </c>
-      <c r="H11">
-        <v>3.409361</v>
-      </c>
-      <c r="I11">
-        <v>0.8935341864471323</v>
-      </c>
-      <c r="J11">
-        <v>0.8935341864471323</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.02270233333333333</v>
-      </c>
-      <c r="N11">
-        <v>0.068107</v>
-      </c>
-      <c r="O11">
-        <v>0.002623024537894458</v>
-      </c>
-      <c r="P11">
-        <v>0.002623024537894457</v>
-      </c>
-      <c r="Q11">
-        <v>0.02580014995855556</v>
-      </c>
-      <c r="R11">
-        <v>0.232201349627</v>
-      </c>
-      <c r="S11">
-        <v>0.002343762096498389</v>
-      </c>
-      <c r="T11">
-        <v>0.002343762096498389</v>
+        <v>0.3726881896951563</v>
       </c>
     </row>
   </sheetData>
